--- a/data/predictions/crim_justice/sentencing/leveled/leanrepublican.xlsx
+++ b/data/predictions/crim_justice/sentencing/leveled/leanrepublican.xlsx
@@ -874,7 +874,7 @@
         <v>0.6801417784550465</v>
       </c>
       <c r="F34">
-        <v>0.160759766841823</v>
+        <v>0.146576950644206</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -888,7 +888,7 @@
         <v>0.6616340721731296</v>
       </c>
       <c r="F35">
-        <v>0.1699739208288904</v>
+        <v>0.1477656256664232</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -902,7 +902,7 @@
         <v>0.6615950653856929</v>
       </c>
       <c r="F36">
-        <v>0.1711840926603124</v>
+        <v>0.1481828239689865</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -916,7 +916,7 @@
         <v>0.6544769349456808</v>
       </c>
       <c r="F37">
-        <v>0.1765949845168384</v>
+        <v>0.1545101133376645</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -930,7 +930,7 @@
         <v>0.6500722598685345</v>
       </c>
       <c r="F38">
-        <v>0.1798012176939514</v>
+        <v>0.1615411418336086</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -944,7 +944,7 @@
         <v>0.6446275068993192</v>
       </c>
       <c r="F39">
-        <v>0.1841645191507079</v>
+        <v>0.1724627103420627</v>
       </c>
     </row>
   </sheetData>
